--- a/Documents/Power Merge Digikey Parts.xlsx
+++ b/Documents/Power Merge Digikey Parts.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rosem\Documents\MIL\Git\Power-Merge\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{81AEA8DE-5D77-4B52-8C2F-F9EC1B039D98}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69651BC2-F7DF-44A3-BB60-AEDB0185B61B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -91,12 +91,6 @@
     <t>DIODE SCHOTTKY 60V 1A SMA</t>
   </si>
   <si>
-    <t>IRFB3306PBF-ND</t>
-  </si>
-  <si>
-    <t>IRFB3306PBF</t>
-  </si>
-  <si>
     <t>MOSFET N-CH 60V 120A TO-220AB</t>
   </si>
   <si>
@@ -107,6 +101,12 @@
   </si>
   <si>
     <t>IC OR CTRLR N+1 6SOT</t>
+  </si>
+  <si>
+    <t>IRFS3306TRLPBF‎-ND</t>
+  </si>
+  <si>
+    <t>IRFS3306TRLPBF‎</t>
   </si>
 </sst>
 </file>
@@ -466,7 +466,7 @@
   <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -650,13 +650,13 @@
         <v>6</v>
       </c>
       <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" t="s">
         <v>23</v>
-      </c>
-      <c r="D6" t="s">
-        <v>24</v>
-      </c>
-      <c r="E6" t="s">
-        <v>25</v>
       </c>
       <c r="F6" t="s">
         <v>13</v>
@@ -682,13 +682,13 @@
         <v>6</v>
       </c>
       <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" t="s">
         <v>26</v>
-      </c>
-      <c r="D7" t="s">
-        <v>27</v>
-      </c>
-      <c r="E7" t="s">
-        <v>28</v>
       </c>
       <c r="F7" t="s">
         <v>13</v>
